--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Île-de-France/Liste_des_espèces_végétales_protégées_en_Île-de-France.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Île-de-France/Liste_des_espèces_végétales_protégées_en_Île-de-France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_%C3%8Ele-de-France</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Île-de-France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Île-de-France est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Île-de-France, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 11 mars 1991[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Île-de-France est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Île-de-France, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 11 mars 1991.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_%C3%8Ele-de-France</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Île-de-France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Asplenium obovatum subsp. billotii (F.W.Schultz) O.Bolòs, Vigo, Massales &amp; Ninot, Doradille de Billot
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_%C3%8Ele-de-France</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Île-de-France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monocotylédones
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allium angulosum L., Ail anguleux
 Allium flavum L., Ail jaune
 Anacamptis palustris (Jacq.) R.M.Bateman, Pridgeon &amp; M.W.Chase anciennement Orchis palustris Jacq., Orchis des marais
@@ -616,7 +636,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_%C3%8Ele-de-France</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Île-de-France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -634,7 +654,9 @@
           <t>Dicotylédones</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aconitum napellus subsp. lusitanicum Rouy anciennement Aconitum napellus (L.) ssp. neomontanum (Wulfen) Gayer, Aconit casque de Jupiter
